--- a/r5-AGES-MedicinalProduct-review/ValueSet-medicinalProductNamePartTypeVs.xlsx
+++ b/r5-AGES-MedicinalProduct-review/ValueSet-medicinalProductNamePartTypeVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T10:36:09+00:00</t>
+    <t>2024-05-17T12:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-review/ValueSet-medicinalProductNamePartTypeVs.xlsx
+++ b/r5-AGES-MedicinalProduct-review/ValueSet-medicinalProductNamePartTypeVs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T12:22:27+00:00</t>
+    <t>2024-05-17T13:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-review/ValueSet-medicinalProductNamePartTypeVs.xlsx
+++ b/r5-AGES-MedicinalProduct-review/ValueSet-medicinalProductNamePartTypeVs.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from Medicinal Produc" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Additional Medic" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://ema.europa.eu/fhir/vs/productNamePartType</t>
+    <t>https://www.ages.at/fhir/medicinalproduct/ValueSet/medicinalProductNamePartTypeVs</t>
   </si>
   <si>
     <t>Version</t>
@@ -42,7 +43,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>The Medicinal Product Name Part Type</t>
+    <t>Medicinal Product Name Part Type</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:17:34+00:00</t>
+    <t>2024-05-23T11:14:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,6 +101,9 @@
   </si>
   <si>
     <t>https://spor.ema.europa.eu/v1/lists/220000000000</t>
+  </si>
+  <si>
+    <t>https://www.ages.at/fhir/medicinalproduct/CodeSystem/at-medprod-cs-additionalMedicinalProductNamePartType</t>
   </si>
 </sst>
 </file>
@@ -393,4 +397,47 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/r5-AGES-MedicinalProduct-review/ValueSet-medicinalProductNamePartTypeVs.xlsx
+++ b/r5-AGES-MedicinalProduct-review/ValueSet-medicinalProductNamePartTypeVs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T11:14:51+00:00</t>
+    <t>2024-05-23T12:15:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-review/ValueSet-medicinalProductNamePartTypeVs.xlsx
+++ b/r5-AGES-MedicinalProduct-review/ValueSet-medicinalProductNamePartTypeVs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:15:30+00:00</t>
+    <t>2024-05-23T12:44:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-review/ValueSet-medicinalProductNamePartTypeVs.xlsx
+++ b/r5-AGES-MedicinalProduct-review/ValueSet-medicinalProductNamePartTypeVs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:44:01+00:00</t>
+    <t>2024-05-23T12:55:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-review/ValueSet-medicinalProductNamePartTypeVs.xlsx
+++ b/r5-AGES-MedicinalProduct-review/ValueSet-medicinalProductNamePartTypeVs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:55:33+00:00</t>
+    <t>2024-05-24T07:08:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
